--- a/data/trans_camb/MCS12_SP_R3-Clase-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 4,03</t>
+          <t>-5,89; 4,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 5,06</t>
+          <t>-5,14; 5,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 6,05</t>
+          <t>-3,96; 5,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 7,4</t>
+          <t>-6,3; 7,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 2,18</t>
+          <t>-10,21; 2,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 6,56</t>
+          <t>-5,13; 6,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 4,08</t>
+          <t>-4,78; 3,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 2,76</t>
+          <t>-5,69; 2,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 4,75</t>
+          <t>-2,8; 4,82</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,89; 27,56</t>
+          <t>-29,37; 27,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,52; 33,39</t>
+          <t>-25,96; 33,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 40,19</t>
+          <t>-19,45; 38,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 40,41</t>
+          <t>-24,99; 39,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,16; 11,57</t>
+          <t>-40,78; 11,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 34,93</t>
+          <t>-19,3; 34,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 23,86</t>
+          <t>-22,26; 20,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 16,54</t>
+          <t>-26,03; 14,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 27,68</t>
+          <t>-12,58; 28,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 11,58</t>
+          <t>0,27; 11,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 7,88</t>
+          <t>-3,37; 7,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 6,62</t>
+          <t>-3,56; 6,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 14,13</t>
+          <t>-0,86; 13,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 4,89</t>
+          <t>-7,55; 5,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 4,24</t>
+          <t>-7,1; 5,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 9,96</t>
+          <t>0,87; 10,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 4,43</t>
+          <t>-3,79; 4,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,81</t>
+          <t>-4,43; 3,7</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 101,9</t>
+          <t>0,73; 96,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 64,35</t>
+          <t>-18,8; 66,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 58,74</t>
+          <t>-21,4; 55,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 59,77</t>
+          <t>-2,86; 60,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 22,35</t>
+          <t>-26,56; 22,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,81; 18,41</t>
+          <t>-24,53; 23,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 53,68</t>
+          <t>3,17; 56,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 24,74</t>
+          <t>-16,78; 26,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 20,78</t>
+          <t>-19,25; 20,16</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,91</t>
+          <t>2,57; 12,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 8,18</t>
+          <t>-1,62; 8,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 6,98</t>
+          <t>-13,89; 6,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 18,98</t>
+          <t>-0,01; 18,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 15,92</t>
+          <t>-3,89; 16,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 8,76</t>
+          <t>-8,93; 8,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 12,85</t>
+          <t>4,13; 12,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 8,16</t>
+          <t>-0,62; 8,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 5,78</t>
+          <t>-13,81; 5,53</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,56; 81,06</t>
+          <t>11,38; 78,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 52,51</t>
+          <t>-8,72; 54,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,31; 39,73</t>
+          <t>-70,59; 37,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 96,76</t>
+          <t>-0,38; 87,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 75,83</t>
+          <t>-14,63; 79,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 41,25</t>
+          <t>-29,62; 40,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,13; 72,7</t>
+          <t>18,39; 71,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 45,49</t>
+          <t>-2,88; 49,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-67,52; 29,79</t>
+          <t>-63,64; 28,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 6,33</t>
+          <t>-0,99; 6,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 1,41</t>
+          <t>-5,19; 1,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 2,95</t>
+          <t>-4,11; 3,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 8,38</t>
+          <t>-1,02; 8,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 4,42</t>
+          <t>-4,44; 4,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 45,04</t>
+          <t>-2,91; 45,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 5,68</t>
+          <t>-0,04; 5,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,63</t>
+          <t>-3,43; 1,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 27,54</t>
+          <t>-1,78; 28,11</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 31,1</t>
+          <t>-4,27; 30,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 7,29</t>
+          <t>-22,16; 6,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 14,35</t>
+          <t>-17,68; 17,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 35,71</t>
+          <t>-3,96; 33,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 18,77</t>
+          <t>-15,29; 19,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 179,01</t>
+          <t>-10,66; 199,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 25,09</t>
+          <t>-0,18; 25,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 7,41</t>
+          <t>-13,91; 8,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 114,11</t>
+          <t>-7,52; 124,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 9,03</t>
+          <t>-2,3; 8,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 6,29</t>
+          <t>-5,2; 5,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 8,73</t>
+          <t>-3,03; 9,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,48; 15,44</t>
+          <t>4,58; 14,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,28; 11,17</t>
+          <t>0,19; 11,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 4,93</t>
+          <t>-9,83; 4,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,34; 10,86</t>
+          <t>3,23; 11,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 6,56</t>
+          <t>-1,04; 6,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 5,27</t>
+          <t>-4,52; 5,39</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 55,99</t>
+          <t>-10,1; 53,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,04; 40,37</t>
+          <t>-21,12; 37,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 52,07</t>
+          <t>-14,44; 55,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>13,88; 59,05</t>
+          <t>14,22; 56,51</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>1,02; 42,32</t>
+          <t>0,94; 41,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-30,38; 17,61</t>
+          <t>-31,38; 16,65</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>11,93; 45,91</t>
+          <t>11,54; 47,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 28,26</t>
+          <t>-3,71; 27,91</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 22,17</t>
+          <t>-16,32; 23,35</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 9,47</t>
+          <t>-2,29; 9,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 4,04</t>
+          <t>-6,27; 4,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 4,61</t>
+          <t>-8,05; 4,2</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,39; 10,03</t>
+          <t>2,27; 9,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 1,94</t>
+          <t>-5,3; 2,1</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 6,38</t>
+          <t>-1,52; 6,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,16; 8,49</t>
+          <t>2,41; 9,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 0,93</t>
+          <t>-5,4; 0,95</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 3,74</t>
+          <t>-2,92; 3,86</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 100,08</t>
+          <t>-18,52; 103,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-40,97; 45,6</t>
+          <t>-42,6; 49,84</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-54,87; 51,61</t>
+          <t>-58,14; 45,94</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,39; 41,04</t>
+          <t>8,05; 40,57</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 7,82</t>
+          <t>-18,93; 8,33</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 26,6</t>
+          <t>-5,33; 25,19</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>8,06; 37,76</t>
+          <t>9,63; 40,41</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 4,23</t>
+          <t>-21,35; 4,13</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 17,29</t>
+          <t>-11,66; 17,39</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,43</t>
+          <t>1,57; 5,73</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,02</t>
+          <t>-1,72; 2,19</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 2,0</t>
+          <t>-4,6; 1,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,97; 8,33</t>
+          <t>3,91; 8,39</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,5</t>
+          <t>-1,92; 2,35</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 18,65</t>
+          <t>-0,63; 19,04</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,37</t>
+          <t>3,4; 6,64</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,99</t>
+          <t>-1,18; 1,79</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 9,79</t>
+          <t>-1,04; 11,31</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>7,58; 30,71</t>
+          <t>7,7; 32,28</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 11,61</t>
+          <t>-8,75; 12,24</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 10,89</t>
+          <t>-24,25; 10,53</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>14,47; 33,15</t>
+          <t>14,01; 33,03</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 9,71</t>
+          <t>-7,06; 9,16</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 71,95</t>
+          <t>-2,23; 71,34</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>13,95; 28,9</t>
+          <t>14,44; 30,26</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 9,09</t>
+          <t>-5,06; 8,13</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 43,42</t>
+          <t>-4,74; 49,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/MCS12_SP_R3-Clase-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
